--- a/order_generation/PO_excel/ECSB-TPR1-1.xlsx
+++ b/order_generation/PO_excel/ECSB-TPR1-1.xlsx
@@ -1009,7 +1009,7 @@
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1562100" cy="1266825"/>
+    <ext cx="1628775" cy="1266825"/>
     <pic>
       <nvPicPr>
         <cNvPr id="13" name="Image 13" descr="Picture"/>
@@ -1435,7 +1435,11 @@
           <t>订单号</t>
         </is>
       </c>
-      <c r="G3" s="20" t="inlineStr"/>
+      <c r="G3" s="20" t="inlineStr">
+        <is>
+          <t>ECSB-TPR1-1</t>
+        </is>
+      </c>
       <c r="H3" s="20" t="n"/>
     </row>
     <row r="4" ht="18.75" customFormat="1" customHeight="1" s="1">
@@ -1459,7 +1463,7 @@
       </c>
       <c r="G4" s="22" t="inlineStr">
         <is>
-          <t>2025年09月02日</t>
+          <t>2025年09月03日</t>
         </is>
       </c>
       <c r="H4" s="20" t="n"/>
@@ -1531,7 +1535,7 @@
     <row r="7" ht="100" customFormat="1" customHeight="1" s="2">
       <c r="A7" s="8" t="inlineStr">
         <is>
-          <t>EC404-2-2-2</t>
+          <t>ECSB-TPR1-1</t>
         </is>
       </c>
       <c r="B7" s="27" t="n"/>
@@ -1655,7 +1659,7 @@
       </c>
       <c r="B14" s="43" t="inlineStr">
         <is>
-          <t>2025年09月09日</t>
+          <t>2025年09月10日</t>
         </is>
       </c>
       <c r="C14" s="44" t="n"/>
